--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Cấu Trúc Dữ Liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE1306-30A0-4C0F-91E4-D6B7AC8581F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D707D46-D1B5-461E-B249-1E4E64B5AD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F0328CDE-48A1-4D72-A42B-0913C28409E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>KẾ HOẠCH ĐỒ ÁN: DEMO Tháp HÀ NỘI</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Đồ hoạ hoá thuật toán:</t>
   </si>
   <si>
-    <t>Tạo Menu cho chương trình:</t>
-  </si>
-  <si>
     <t>18/9</t>
   </si>
   <si>
@@ -91,13 +88,34 @@
   </si>
   <si>
     <t>Ghi lại vị trí và trạng thái đĩa</t>
+  </si>
+  <si>
+    <t>Tạo backgourp</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Thuyết trình</t>
+  </si>
+  <si>
+    <t>Tạo Menu cho chương trình</t>
+  </si>
+  <si>
+    <t>*Chương trình được viết dựa trên ngôn ngữ C#</t>
+  </si>
+  <si>
+    <t>Tìm hiểu stack</t>
+  </si>
+  <si>
+    <t>Debug và chạy thử</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +136,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -213,27 +239,54 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,7 +319,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B47D9A-6B51-4FF8-86CC-BBA2DA0C0D52}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,100 +704,122 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43110</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43110</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7">
-        <v>43110</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7">
-        <v>43110</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -737,12 +827,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="2"/>
@@ -751,62 +843,116 @@
       <c r="A11" s="6"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7">
-        <v>43143</v>
-      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43143</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B6:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Cấu Trúc Dữ Liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gia Nhung\Documents\GitHub\DoAnCuoiKi_CTDL-GT_DemoThapHaNoi_GVHDTranCongTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D707D46-D1B5-461E-B249-1E4E64B5AD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028555E3-F109-4255-A99D-FDA3E18B86AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F0328CDE-48A1-4D72-A42B-0913C28409E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>KẾ HOẠCH ĐỒ ÁN: DEMO Tháp HÀ NỘI</t>
   </si>
@@ -48,15 +48,9 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Đồ hoạ hoá thuật toán:</t>
-  </si>
-  <si>
     <t>18/9</t>
   </si>
   <si>
-    <t>29/11</t>
-  </si>
-  <si>
     <t>Viết stack</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Debug</t>
   </si>
   <si>
-    <t>Khởi động chương trình đồ hoạ</t>
-  </si>
-  <si>
     <t>Tạo cột</t>
   </si>
   <si>
@@ -109,6 +100,9 @@
   </si>
   <si>
     <t>Debug và chạy thử</t>
+  </si>
+  <si>
+    <t>Đồ thị hoá thuật toán</t>
   </si>
 </sst>
 </file>
@@ -169,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,19 +219,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -286,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +282,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,31 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -651,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B47D9A-6B51-4FF8-86CC-BBA2DA0C0D52}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,25 +648,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,17 +683,17 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>22</v>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -725,16 +703,16 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="7">
         <v>43110</v>
@@ -743,12 +721,12 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -759,81 +737,75 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7">
-        <v>43110</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -841,13 +813,15 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -855,104 +829,88 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7">
+        <v>43143</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
-        <v>30</v>
-      </c>
-      <c r="G14" s="7">
-        <v>43143</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gia Nhung\Documents\GitHub\DoAnCuoiKi_CTDL-GT_DemoThapHaNoi_GVHDTranCongTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028555E3-F109-4255-A99D-FDA3E18B86AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A85C288-FDC7-413D-8F88-BA18B04A4D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F0328CDE-48A1-4D72-A42B-0913C28409E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>KẾ HOẠCH ĐỒ ÁN: DEMO Tháp HÀ NỘI</t>
   </si>
@@ -48,9 +48,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>18/9</t>
-  </si>
-  <si>
     <t>Viết stack</t>
   </si>
   <si>
@@ -103,6 +100,15 @@
   </si>
   <si>
     <t>Đồ thị hoá thuật toán</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến</t>
+  </si>
+  <si>
+    <t>Thời gian thực tế</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -263,17 +269,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,9 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,6 +322,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B47D9A-6B51-4FF8-86CC-BBA2DA0C0D52}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,272 +667,358 @@
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="12" t="s">
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43362</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43363</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43362</v>
+      </c>
+      <c r="I3" s="4">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4">
+        <v>43364</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43366</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4">
+        <v>43364</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43366</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43367</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43368</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43367</v>
+      </c>
+      <c r="I6" s="4">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43369</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43371</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43369</v>
+      </c>
+      <c r="I7" s="4">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4">
+        <v>43370</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43373</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43370</v>
+      </c>
+      <c r="I8" s="4">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43373</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43383</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43383</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43393</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43394</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43402</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43403</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43409</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <v>43410</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43411</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43411</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43419</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7">
-        <v>43110</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4">
+        <v>43420</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7">
-        <v>43143</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gia Nhung\Documents\GitHub\DoAnCuoiKi_CTDL-GT_DemoThapHaNoi_GVHDTranCongTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A85C288-FDC7-413D-8F88-BA18B04A4D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC5B301-6A59-46CB-A293-16440C98E3EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F0328CDE-48A1-4D72-A42B-0913C28409E1}"/>
   </bookViews>
@@ -300,6 +300,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,19 +335,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B47D9A-6B51-4FF8-86CC-BBA2DA0C0D52}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,30 +671,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,13 +710,13 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -745,7 +745,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -759,12 +759,16 @@
       <c r="G4" s="4">
         <v>43366</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4">
+        <v>43364</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43366</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -778,14 +782,18 @@
       <c r="G5" s="4">
         <v>43366</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="4">
+        <v>43364</v>
+      </c>
+      <c r="I5" s="4">
+        <v>43366</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -812,7 +820,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -837,7 +845,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -860,7 +868,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -874,12 +882,16 @@
       <c r="G9" s="4">
         <v>43383</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4">
+        <v>43378</v>
+      </c>
+      <c r="I9" s="4">
+        <v>43383</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -893,12 +905,16 @@
       <c r="G10" s="4">
         <v>43393</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4">
+        <v>43378</v>
+      </c>
+      <c r="I10" s="4">
+        <v>43385</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -914,12 +930,16 @@
       <c r="G11" s="4">
         <v>43402</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4">
+        <v>43383</v>
+      </c>
+      <c r="I11" s="4">
+        <v>43388</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -933,8 +953,12 @@
       <c r="G12" s="4">
         <v>43409</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4">
+        <v>43383</v>
+      </c>
+      <c r="I12" s="4">
+        <v>43388</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -956,8 +980,12 @@
       <c r="G13" s="4">
         <v>43411</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4">
+        <v>43389</v>
+      </c>
+      <c r="I13" s="4">
+        <v>43389</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -977,8 +1005,12 @@
       <c r="G14" s="4">
         <v>43419</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4">
+        <v>43405</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43419</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1002,13 +1034,13 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
